--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="39">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>○</t>
   </si>
   <si>
     <t>G</t>
@@ -1213,16 +1216,36 @@
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
@@ -1346,7 +1369,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3">
         <v>1.0</v>
@@ -1383,16 +1406,36 @@
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
@@ -1516,7 +1559,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81" s="3">
         <v>1.0</v>
@@ -1553,16 +1596,36 @@
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="B82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
@@ -1686,7 +1749,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B92" s="3">
         <v>1.0</v>
@@ -1723,16 +1786,36 @@
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
@@ -1856,7 +1939,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" s="3">
         <v>1.0</v>
@@ -1893,16 +1976,36 @@
       <c r="A104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
+      <c r="B104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
@@ -2026,7 +2129,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B114" s="3">
         <v>1.0</v>
@@ -2063,11 +2166,21 @@
       <c r="A115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+      <c r="B115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
@@ -2196,7 +2309,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" s="3">
         <v>1.0</v>
@@ -2233,11 +2346,21 @@
       <c r="A126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
+      <c r="B126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
@@ -2366,7 +2489,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B136" s="3">
         <v>1.0</v>
@@ -2403,16 +2526,36 @@
       <c r="A137" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
+      <c r="B137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
@@ -2536,7 +2679,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B147" s="3">
         <v>1.0</v>
@@ -2573,16 +2716,36 @@
       <c r="A148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
+      <c r="B148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
@@ -2706,7 +2869,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B158" s="3">
         <v>1.0</v>
@@ -2743,16 +2906,36 @@
       <c r="A159" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
+      <c r="B159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
@@ -2876,7 +3059,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B169" s="3">
         <v>1.0</v>
@@ -3046,7 +3229,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B180" s="3">
         <v>1.0</v>
@@ -3216,7 +3399,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B191" s="3">
         <v>1.0</v>
@@ -3386,7 +3569,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B202" s="3">
         <v>1.0</v>
@@ -3556,7 +3739,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B213" s="3">
         <v>1.0</v>
@@ -3726,7 +3909,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B224" s="3">
         <v>1.0</v>
@@ -3896,7 +4079,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B235" s="3">
         <v>1.0</v>
@@ -4066,7 +4249,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B246" s="3">
         <v>1.0</v>
@@ -4236,7 +4419,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B257" s="3">
         <v>1.0</v>
@@ -4406,7 +4589,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B268" s="3">
         <v>1.0</v>
@@ -4576,7 +4759,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B279" s="3">
         <v>1.0</v>

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="41">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <t>月読アイ</t>
+  </si>
+  <si>
+    <t>合成音声　男</t>
+  </si>
+  <si>
+    <t>合成音声　女</t>
   </si>
   <si>
     <t>Ａ</t>
@@ -58,6 +64,9 @@
     <t>Ｃ</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>Ｄ</t>
   </si>
   <si>
@@ -65,9 +74,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>G</t>
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -199,6 +205,9 @@
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -236,10 +245,16 @@
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1.0</v>
@@ -281,34 +296,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="6">
         <v>0.0</v>
@@ -316,23 +331,43 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -348,7 +383,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -364,7 +399,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -380,7 +415,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -396,7 +431,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -412,7 +447,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -428,7 +463,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -444,7 +479,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>1.0</v>
@@ -482,34 +517,34 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" s="6">
         <v>0.0</v>
@@ -517,23 +552,43 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -549,7 +604,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -565,7 +620,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -581,7 +636,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -597,7 +652,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -613,7 +668,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -629,7 +684,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -645,7 +700,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3">
         <v>1.0</v>
@@ -683,34 +738,34 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L27" s="6">
         <v>0.0</v>
@@ -718,23 +773,43 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -744,13 +819,12 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -766,7 +840,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -782,7 +856,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -798,7 +872,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -814,7 +888,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -830,7 +904,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -846,7 +920,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B37" s="3">
         <v>1.0</v>
@@ -884,34 +958,34 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L38" s="6">
         <v>0.0</v>
@@ -919,23 +993,43 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="L39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -951,7 +1045,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -967,7 +1061,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -983,7 +1077,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -999,7 +1093,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1015,7 +1109,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1031,7 +1125,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1047,7 +1141,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3">
         <v>1.0</v>
@@ -1085,34 +1179,34 @@
         <v>2</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L49" s="6">
         <v>0.0</v>
@@ -1120,23 +1214,43 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="L50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1152,7 +1266,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1168,7 +1282,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1184,7 +1298,7 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1200,7 +1314,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1216,7 +1330,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1232,7 +1346,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1248,7 +1362,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3">
         <v>1.0</v>
@@ -1286,34 +1400,34 @@
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L60" s="6">
         <v>0.1</v>
@@ -1321,135 +1435,155 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
       <c r="L62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
       <c r="L63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
       <c r="L64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
       <c r="L67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
       <c r="L68" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3">
         <v>1.0</v>
@@ -1487,34 +1621,34 @@
         <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L71" s="6">
         <v>0.0</v>
@@ -1522,135 +1656,155 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
       <c r="L73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
       <c r="L74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
       <c r="L75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
       <c r="L76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
       <c r="L77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
       <c r="L78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
       <c r="L79" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B81" s="3">
         <v>1.0</v>
@@ -1688,34 +1842,34 @@
         <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L82" s="6">
         <v>0.0</v>
@@ -1723,135 +1877,155 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
       <c r="L84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
       <c r="L85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
       <c r="L86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
       <c r="L87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
       <c r="L88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
       <c r="L89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
       <c r="L90" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B92" s="3">
         <v>1.0</v>
@@ -1889,34 +2063,34 @@
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L93" s="6">
         <v>0.0</v>
@@ -1924,137 +2098,157 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
       <c r="L95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
       <c r="L96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
       <c r="L97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
       <c r="L98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
       <c r="L99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
       <c r="L100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
       <c r="L101" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B103" s="3">
         <v>1.0</v>
@@ -2092,34 +2286,34 @@
         <v>2</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L104" s="6">
         <v>0.1</v>
@@ -2127,135 +2321,155 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
       <c r="L106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
       <c r="L107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
       <c r="L108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
       <c r="L109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
       <c r="L110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
       <c r="L111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
       <c r="L112" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B114" s="3">
         <v>1.0</v>
@@ -2293,34 +2507,34 @@
         <v>2</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L115" s="6">
         <v>0.0</v>
@@ -2328,135 +2542,155 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
       <c r="L117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
       <c r="L118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
       <c r="L119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
       <c r="L120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
       <c r="L121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
       <c r="L122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
       <c r="L123" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B125" s="3">
         <v>1.0</v>
@@ -2494,34 +2728,34 @@
         <v>2</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L126" s="6">
         <v>0.0</v>
@@ -2529,135 +2763,155 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
       <c r="L128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
       <c r="L129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
       <c r="L130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
       <c r="L131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
       <c r="L132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
       <c r="L133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
       <c r="L134" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B136" s="3">
         <v>1.0</v>
@@ -2695,34 +2949,34 @@
         <v>2</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L137" s="6">
         <v>0.0</v>
@@ -2730,135 +2984,155 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
       <c r="L139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
       <c r="L140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
       <c r="L141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
       <c r="L142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
       <c r="L143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
       <c r="L144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
       <c r="L145" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B147" s="3">
         <v>1.0</v>
@@ -2896,34 +3170,34 @@
         <v>2</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L148" s="6">
         <v>0.2</v>
@@ -2931,135 +3205,155 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="L149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
       <c r="L150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
       <c r="L151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
       <c r="L152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
       <c r="L153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
       <c r="L154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
       <c r="L155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
       <c r="L156" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B158" s="3">
         <v>1.0</v>
@@ -3097,34 +3391,34 @@
         <v>2</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L159" s="6">
         <v>0.0</v>
@@ -3132,135 +3426,135 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
       <c r="L160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
       <c r="L161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
       <c r="L162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
       <c r="L163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
       <c r="L164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
       <c r="L165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
       <c r="L166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
       <c r="L167" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B169" s="3">
         <v>1.0</v>
@@ -3298,34 +3592,34 @@
         <v>2</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L170" s="6">
         <v>0.0</v>
@@ -3333,135 +3627,135 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
       <c r="L171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
       <c r="L172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
       <c r="L173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
       <c r="L174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
       <c r="L175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
       <c r="L176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
       <c r="L177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
       <c r="L178" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B180" s="3">
         <v>1.0</v>
@@ -3499,34 +3793,34 @@
         <v>2</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L181" s="6">
         <v>0.0</v>
@@ -3534,135 +3828,135 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
       <c r="L182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
       <c r="L183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
       <c r="L184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
       <c r="L185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
       <c r="L186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
       <c r="L187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
       <c r="L188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
       <c r="L189" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B191" s="3">
         <v>1.0</v>
@@ -3700,34 +3994,34 @@
         <v>2</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L192" s="6">
         <v>0.2</v>
@@ -3735,135 +4029,135 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
       <c r="L193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
       <c r="L194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
       <c r="L195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
       <c r="L196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
       <c r="L197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
       <c r="L198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
       <c r="L199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
       <c r="L200" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B202" s="3">
         <v>1.0</v>
@@ -3901,34 +4195,34 @@
         <v>2</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L203" s="6">
         <v>0.2</v>
@@ -3936,135 +4230,135 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
       <c r="L204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="9"/>
+      <c r="K205" s="9"/>
       <c r="L205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
       <c r="L206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
       <c r="L207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
       <c r="L208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
-      <c r="K209" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
       <c r="L209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
       <c r="L210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
       <c r="L211" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B213" s="3">
         <v>1.0</v>
@@ -4102,34 +4396,34 @@
         <v>2</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L214" s="6">
         <v>0.0</v>
@@ -4137,135 +4431,135 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-      <c r="K215" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
       <c r="L215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
-      <c r="K216" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
       <c r="L216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
-      <c r="K217" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="9"/>
       <c r="L217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
-      <c r="K218" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
       <c r="L218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
       <c r="L219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9"/>
       <c r="L220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
-      <c r="K221" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
       <c r="L221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
-      <c r="K222" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
       <c r="L222" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B224" s="3">
         <v>1.0</v>
@@ -4303,170 +4597,170 @@
         <v>2</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L225" s="9">
+        <v>6</v>
+      </c>
+      <c r="L225" s="10">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
-      <c r="J226" s="8"/>
-      <c r="K226" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
       <c r="L226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
-      <c r="J227" s="8"/>
-      <c r="K227" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
       <c r="L227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
-      <c r="K228" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
       <c r="L228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
-      <c r="K229" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="9"/>
       <c r="L229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
-      <c r="J230" s="8"/>
-      <c r="K230" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="9"/>
       <c r="L230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
-      <c r="J231" s="8"/>
-      <c r="K231" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="9"/>
       <c r="L231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
-      <c r="K232" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="9"/>
       <c r="L232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
       <c r="L233" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B235" s="3">
         <v>1.0</v>
@@ -4504,34 +4798,34 @@
         <v>2</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L236" s="6">
         <v>0.1</v>
@@ -4539,135 +4833,135 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
       <c r="L237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
-      <c r="K238" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
       <c r="L238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
-      <c r="K239" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="9"/>
       <c r="L239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8"/>
-      <c r="J240" s="8"/>
-      <c r="K240" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="9"/>
       <c r="L240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
-      <c r="H241" s="8"/>
-      <c r="I241" s="8"/>
-      <c r="J241" s="8"/>
-      <c r="K241" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B241" s="9"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="9"/>
       <c r="L241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
-      <c r="K242" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
       <c r="L242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8"/>
-      <c r="I243" s="8"/>
-      <c r="J243" s="8"/>
-      <c r="K243" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B243" s="9"/>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
       <c r="L243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
-      <c r="K244" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
       <c r="L244" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B246" s="3">
         <v>1.0</v>
@@ -4705,34 +4999,34 @@
         <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L247" s="6">
         <v>0.0</v>
@@ -4740,135 +5034,135 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="8"/>
-      <c r="I248" s="8"/>
-      <c r="J248" s="8"/>
-      <c r="K248" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B248" s="9"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
       <c r="L248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
-      <c r="J249" s="8"/>
-      <c r="K249" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="9"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="9"/>
       <c r="L249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
-      <c r="J250" s="8"/>
-      <c r="K250" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="9"/>
       <c r="L250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="8"/>
-      <c r="J251" s="8"/>
-      <c r="K251" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B251" s="9"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="9"/>
+      <c r="K251" s="9"/>
       <c r="L251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
-      <c r="J252" s="8"/>
-      <c r="K252" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="9"/>
       <c r="L252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="8"/>
-      <c r="K253" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B253" s="9"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="9"/>
       <c r="L253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
-      <c r="K254" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
       <c r="L254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
-      <c r="J255" s="8"/>
-      <c r="K255" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
       <c r="L255" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B257" s="3">
         <v>1.0</v>
@@ -4906,34 +5200,34 @@
         <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L258" s="6">
         <v>0.0</v>
@@ -4941,135 +5235,135 @@
     </row>
     <row r="259">
       <c r="A259" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
-      <c r="K259" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
       <c r="L259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
-      <c r="H260" s="8"/>
-      <c r="I260" s="8"/>
-      <c r="J260" s="8"/>
-      <c r="K260" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="9"/>
+      <c r="K260" s="9"/>
       <c r="L260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
-      <c r="K261" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
       <c r="L261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
-      <c r="K262" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="9"/>
       <c r="L262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
-      <c r="K263" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
       <c r="L263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-      <c r="H264" s="8"/>
-      <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
-      <c r="K264" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
+      <c r="I264" s="9"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="9"/>
       <c r="L264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-      <c r="H265" s="8"/>
-      <c r="I265" s="8"/>
-      <c r="J265" s="8"/>
-      <c r="K265" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="9"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="9"/>
+      <c r="K265" s="9"/>
       <c r="L265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-      <c r="H266" s="8"/>
-      <c r="I266" s="8"/>
-      <c r="J266" s="8"/>
-      <c r="K266" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="9"/>
+      <c r="K266" s="9"/>
       <c r="L266" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B268" s="3">
         <v>1.0</v>
@@ -5107,34 +5401,34 @@
         <v>2</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L269" s="6">
         <v>0.0</v>
@@ -5142,135 +5436,135 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-      <c r="H270" s="8"/>
-      <c r="I270" s="8"/>
-      <c r="J270" s="8"/>
-      <c r="K270" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
+      <c r="I270" s="9"/>
+      <c r="J270" s="9"/>
+      <c r="K270" s="9"/>
       <c r="L270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="9"/>
+      <c r="I271" s="9"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="9"/>
       <c r="L271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
-      <c r="I272" s="8"/>
-      <c r="J272" s="8"/>
-      <c r="K272" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="9"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="9"/>
       <c r="L272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-      <c r="I273" s="8"/>
-      <c r="J273" s="8"/>
-      <c r="K273" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B273" s="9"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+      <c r="H273" s="9"/>
+      <c r="I273" s="9"/>
+      <c r="J273" s="9"/>
+      <c r="K273" s="9"/>
       <c r="L273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8"/>
-      <c r="J274" s="8"/>
-      <c r="K274" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="9"/>
       <c r="L274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
-      <c r="J275" s="8"/>
-      <c r="K275" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B275" s="9"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="9"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="9"/>
       <c r="L275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8"/>
-      <c r="J276" s="8"/>
-      <c r="K276" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
       <c r="L276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-      <c r="H277" s="8"/>
-      <c r="I277" s="8"/>
-      <c r="J277" s="8"/>
-      <c r="K277" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9"/>
       <c r="L277" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B279" s="3">
         <v>1.0</v>
@@ -5308,34 +5602,34 @@
         <v>2</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L280" s="6">
         <v>0.0</v>
@@ -5343,130 +5637,130 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="8"/>
-      <c r="H281" s="8"/>
-      <c r="I281" s="8"/>
-      <c r="J281" s="8"/>
-      <c r="K281" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="9"/>
       <c r="L281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8"/>
-      <c r="H282" s="8"/>
-      <c r="I282" s="8"/>
-      <c r="J282" s="8"/>
-      <c r="K282" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B282" s="9"/>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="9"/>
       <c r="L282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
-      <c r="H283" s="8"/>
-      <c r="I283" s="8"/>
-      <c r="J283" s="8"/>
-      <c r="K283" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="9"/>
       <c r="L283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
-      <c r="H284" s="8"/>
-      <c r="I284" s="8"/>
-      <c r="J284" s="8"/>
-      <c r="K284" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B284" s="9"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="9"/>
       <c r="L284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
-      <c r="K285" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B285" s="9"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="I285" s="9"/>
+      <c r="J285" s="9"/>
+      <c r="K285" s="9"/>
       <c r="L285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
-      <c r="H286" s="8"/>
-      <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
-      <c r="K286" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="9"/>
+      <c r="K286" s="9"/>
       <c r="L286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="8"/>
-      <c r="H287" s="8"/>
-      <c r="I287" s="8"/>
-      <c r="J287" s="8"/>
-      <c r="K287" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="9"/>
+      <c r="K287" s="9"/>
       <c r="L287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="8"/>
-      <c r="H288" s="8"/>
-      <c r="I288" s="8"/>
-      <c r="J288" s="8"/>
-      <c r="K288" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="9"/>
       <c r="L288" s="4"/>
     </row>
   </sheetData>

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="41">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -49,6 +49,9 @@
     <t>合成女</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>子供女１</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>Ｃ</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>Ｄ</t>
@@ -225,11 +225,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -412,17 +412,37 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -431,17 +451,17 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="8"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -450,100 +470,100 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="8"/>
       <c r="N9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
@@ -656,117 +676,137 @@
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
         <v>1.0</v>
@@ -842,19 +882,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>6</v>
@@ -866,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7">
         <v>0.7</v>
@@ -879,112 +919,133 @@
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
@@ -1101,113 +1162,133 @@
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9"/>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
@@ -1324,113 +1405,133 @@
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9"/>
+      <c r="B51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
@@ -1478,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>6</v>
@@ -1510,36 +1611,36 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="9">
+        <v>12</v>
+      </c>
+      <c r="L61" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -1547,17 +1648,37 @@
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="9"/>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="8"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -1573,7 +1694,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="9"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -1589,7 +1710,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="9"/>
+      <c r="L64" s="8"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -1605,11 +1726,11 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="9"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1621,11 +1742,11 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="9"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1637,11 +1758,11 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="9"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1653,7 +1774,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="9"/>
+      <c r="L68" s="8"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
@@ -1724,7 +1845,7 @@
       <c r="K71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L71" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1762,7 +1883,7 @@
       <c r="K72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1770,16 +1891,36 @@
       <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L73" s="10"/>
     </row>
     <row r="74">
@@ -1832,7 +1973,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1848,7 +1989,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1864,7 +2005,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1947,7 +2088,7 @@
       <c r="K82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1956,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>6</v>
@@ -1965,27 +2106,27 @@
         <v>6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="9">
+        <v>12</v>
+      </c>
+      <c r="L83" s="8">
         <v>0.8</v>
       </c>
     </row>
@@ -1993,16 +2134,36 @@
       <c r="A84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="B84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L84" s="10"/>
     </row>
     <row r="85">
@@ -2055,7 +2216,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2071,7 +2232,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2087,7 +2248,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2170,7 +2331,7 @@
       <c r="K93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L93" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -2188,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
@@ -2200,15 +2361,15 @@
         <v>6</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L94" s="9">
+        <v>12</v>
+      </c>
+      <c r="L94" s="8">
         <v>0.4</v>
       </c>
     </row>
@@ -2216,16 +2377,36 @@
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L95" s="10"/>
     </row>
     <row r="96">
@@ -2278,7 +2459,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2294,7 +2475,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2310,7 +2491,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2322,7 +2503,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="9"/>
+      <c r="L101" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
@@ -2367,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
@@ -2393,7 +2574,7 @@
       <c r="K104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L104" s="9">
+      <c r="L104" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -2414,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>6</v>
@@ -2431,7 +2612,7 @@
       <c r="K105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L105" s="9">
+      <c r="L105" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -2439,16 +2620,36 @@
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="B106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L106" s="10"/>
     </row>
     <row r="107">
@@ -2501,7 +2702,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2517,7 +2718,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2533,7 +2734,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2616,7 +2817,7 @@
       <c r="K115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L115" s="9">
+      <c r="L115" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -2654,22 +2855,42 @@
       <c r="K116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L116" s="9"/>
+      <c r="L116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L117" s="10"/>
     </row>
     <row r="118">
@@ -2722,7 +2943,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2738,7 +2959,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2754,7 +2975,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2837,7 +3058,7 @@
       <c r="K126" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L126" s="9">
+      <c r="L126" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -2849,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
@@ -2858,24 +3079,24 @@
         <v>6</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L127" s="9">
+        <v>12</v>
+      </c>
+      <c r="L127" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -2883,16 +3104,36 @@
       <c r="A128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
+      <c r="B128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L128" s="10"/>
     </row>
     <row r="129">
@@ -2945,7 +3186,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2961,7 +3202,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2977,7 +3218,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3060,7 +3301,7 @@
       <c r="K137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L137" s="9">
+      <c r="L137" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3069,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>6</v>
@@ -3098,7 +3339,7 @@
       <c r="K138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L138" s="9">
+      <c r="L138" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -3106,16 +3347,36 @@
       <c r="A139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
+      <c r="B139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L139" s="10"/>
     </row>
     <row r="140">
@@ -3168,7 +3429,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3184,7 +3445,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3200,7 +3461,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3266,7 +3527,7 @@
         <v>6</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>6</v>
@@ -3278,12 +3539,12 @@
         <v>6</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L148" s="9">
+      <c r="L148" s="8">
         <v>0.2</v>
       </c>
     </row>
@@ -3301,7 +3562,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>6</v>
@@ -3321,7 +3582,7 @@
       <c r="K149" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L149" s="9">
+      <c r="L149" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -3329,17 +3590,39 @@
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="10"/>
+      <c r="B150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L150" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
@@ -3391,7 +3674,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3407,7 +3690,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3423,7 +3706,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3506,7 +3789,7 @@
       <c r="K159" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L159" s="9">
+      <c r="L159" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3515,36 +3798,36 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L160" s="9">
+        <v>12</v>
+      </c>
+      <c r="L160" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -3614,7 +3897,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3630,7 +3913,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3646,7 +3929,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3729,7 +4012,7 @@
       <c r="K170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L170" s="9">
+      <c r="L170" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3741,33 +4024,33 @@
         <v>6</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L171" s="9">
+      <c r="L171" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -3837,7 +4120,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3853,7 +4136,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3869,7 +4152,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3952,7 +4235,7 @@
       <c r="K181" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L181" s="9">
+      <c r="L181" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3964,19 +4247,19 @@
         <v>6</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>6</v>
@@ -3985,12 +4268,12 @@
         <v>6</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L182" s="9">
+        <v>12</v>
+      </c>
+      <c r="L182" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -4060,7 +4343,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4076,7 +4359,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4092,7 +4375,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4146,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>6</v>
@@ -4158,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>6</v>
@@ -4175,7 +4458,7 @@
       <c r="K192" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L192" s="9">
+      <c r="L192" s="8">
         <v>0.2</v>
       </c>
     </row>
@@ -4187,33 +4470,33 @@
         <v>6</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L193" s="9">
+        <v>12</v>
+      </c>
+      <c r="L193" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -4283,7 +4566,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -4299,7 +4582,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -4315,7 +4598,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -4390,15 +4673,15 @@
         <v>6</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K203" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L203" s="9">
+      <c r="L203" s="8">
         <v>0.2</v>
       </c>
     </row>
@@ -4407,36 +4690,36 @@
         <v>7</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L204" s="9">
+        <v>12</v>
+      </c>
+      <c r="L204" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -4506,7 +4789,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4522,7 +4805,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4538,7 +4821,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4621,7 +4904,7 @@
       <c r="K214" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L214" s="9">
+      <c r="L214" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4633,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>6</v>
@@ -4659,7 +4942,7 @@
       <c r="K215" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L215" s="9">
+      <c r="L215" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -4729,7 +5012,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4745,7 +5028,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4761,7 +5044,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4882,7 +5165,7 @@
       <c r="K226" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L226" s="9">
+      <c r="L226" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4952,7 +5235,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4968,7 +5251,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4984,7 +5267,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5047,7 +5330,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>6</v>
@@ -5067,7 +5350,7 @@
       <c r="K236" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L236" s="9">
+      <c r="L236" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -5076,36 +5359,36 @@
         <v>7</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L237" s="9">
+        <v>12</v>
+      </c>
+      <c r="L237" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -5175,7 +5458,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5191,7 +5474,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5207,7 +5490,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5290,7 +5573,7 @@
       <c r="K247" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L247" s="9">
+      <c r="L247" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -5328,7 +5611,7 @@
       <c r="K248" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L248" s="9">
+      <c r="L248" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -5398,7 +5681,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -5414,7 +5697,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5430,7 +5713,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -5513,7 +5796,7 @@
       <c r="K258" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L258" s="9">
+      <c r="L258" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -5522,36 +5805,36 @@
         <v>7</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L259" s="9">
+        <v>12</v>
+      </c>
+      <c r="L259" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -5621,7 +5904,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -5637,7 +5920,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -5653,7 +5936,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -5736,7 +6019,7 @@
       <c r="K269" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L269" s="9">
+      <c r="L269" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -5774,7 +6057,7 @@
       <c r="K270" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L270" s="9">
+      <c r="L270" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -5844,7 +6127,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -5860,7 +6143,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -5876,7 +6159,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -5959,7 +6242,7 @@
       <c r="K280" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L280" s="9">
+      <c r="L280" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -5968,36 +6251,36 @@
         <v>7</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L281" s="9">
+        <v>12</v>
+      </c>
+      <c r="L281" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -6067,7 +6350,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6083,7 +6366,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6099,7 +6382,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="41">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -218,13 +218,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -318,84 +318,87 @@
         <f>sum(L6,L17,L28,L39,L50,L61,L72,L83,L94,L105,L116,L127,L138,L149,L160,L171,L182,L193,L204,L215,L226,L237,L248,L259,L270,L281)/26</f>
         <v>41.92%</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="P4" s="4" t="str">
+        <f>sum(L7,L18,L29,L40,L51,L62,L73,L84,L95,L106,L117,L128,L139,L150,L161,L172,L183,L194,L205,L216,L227,L238,L249,L260,L271,L282)/26</f>
+        <v>34.23%</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6">
         <v>0.0</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6">
         <v>0.0</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -412,40 +415,42 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -462,9 +467,9 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="8"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -506,9 +511,9 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="8"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -525,9 +530,9 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="8"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -600,37 +605,37 @@
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -638,37 +643,37 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -676,37 +681,39 @@
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -843,37 +850,37 @@
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="7">
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -881,37 +888,37 @@
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="6">
         <v>0.7</v>
       </c>
     </row>
@@ -919,37 +926,39 @@
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="8"/>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1086,37 +1095,37 @@
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -1124,37 +1133,37 @@
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="7">
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -1162,37 +1171,39 @@
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="8"/>
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -1329,37 +1340,37 @@
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="7">
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -1367,37 +1378,37 @@
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="7">
+      <c r="B50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -1405,37 +1416,39 @@
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="8"/>
+      <c r="B51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -1602,7 +1615,7 @@
       <c r="K60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -1678,102 +1691,104 @@
       <c r="K62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L62" s="8"/>
+      <c r="L62" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="8"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="8"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
       <c r="L67" s="8"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="8"/>
     </row>
     <row r="70">
@@ -1921,102 +1936,104 @@
       <c r="K73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
       <c r="L74" s="10"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
       <c r="L75" s="10"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="10"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
       <c r="L77" s="10"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
       <c r="L78" s="10"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
       <c r="L79" s="10"/>
     </row>
     <row r="81">
@@ -2164,102 +2181,104 @@
       <c r="K84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L84" s="10"/>
+      <c r="L84" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="10"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
       <c r="L86" s="10"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="10"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
       <c r="L88" s="10"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
       <c r="L89" s="10"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
       <c r="L90" s="10"/>
     </row>
     <row r="92">
@@ -2407,102 +2426,104 @@
       <c r="K95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L95" s="10"/>
+      <c r="L95" s="8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
       <c r="L96" s="10"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
       <c r="L97" s="10"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
       <c r="L98" s="10"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
       <c r="L99" s="10"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="10"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="8"/>
     </row>
     <row r="103">
@@ -2650,102 +2671,104 @@
       <c r="K106" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L106" s="10"/>
+      <c r="L106" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="10"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
       <c r="L108" s="10"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="10"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
       <c r="L110" s="10"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="10"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="10"/>
     </row>
     <row r="114">
@@ -2855,7 +2878,9 @@
       <c r="K116" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L116" s="8"/>
+      <c r="L116" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
@@ -2891,102 +2916,104 @@
       <c r="K117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L117" s="10"/>
+      <c r="L117" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
       <c r="L118" s="10"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="10"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
       <c r="L120" s="10"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="10"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="10"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
       <c r="L123" s="10"/>
     </row>
     <row r="125">
@@ -3134,102 +3161,104 @@
       <c r="K128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L128" s="10"/>
+      <c r="L128" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
       <c r="L129" s="10"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
       <c r="L130" s="10"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
       <c r="L131" s="10"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
       <c r="L132" s="10"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
       <c r="L133" s="10"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
       <c r="L134" s="10"/>
     </row>
     <row r="136">
@@ -3377,102 +3406,104 @@
       <c r="K139" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L139" s="10"/>
+      <c r="L139" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
       <c r="L140" s="10"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
       <c r="L141" s="10"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
       <c r="L142" s="10"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
       <c r="L143" s="10"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
       <c r="L144" s="10"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
       <c r="L145" s="10"/>
     </row>
     <row r="147">
@@ -3628,96 +3659,96 @@
       <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
       <c r="L151" s="10"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
       <c r="L152" s="10"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="10"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
       <c r="L154" s="10"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
       <c r="L155" s="10"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
       <c r="L156" s="10"/>
     </row>
     <row r="158">
@@ -3835,112 +3866,134 @@
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="10"/>
+      <c r="B161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L161" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
       <c r="L162" s="10"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="10"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
       <c r="L164" s="10"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="10"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
       <c r="L166" s="10"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
       <c r="L167" s="10"/>
     </row>
     <row r="169">
@@ -4058,112 +4111,134 @@
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="10"/>
+      <c r="B172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
-      <c r="K173" s="5"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
       <c r="L173" s="10"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
       <c r="L174" s="10"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
       <c r="L175" s="10"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
       <c r="L176" s="10"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
       <c r="L177" s="10"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
       <c r="L178" s="10"/>
     </row>
     <row r="180">
@@ -4281,112 +4356,134 @@
       <c r="A183" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="10"/>
+      <c r="B183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L183" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
       <c r="L184" s="10"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
       <c r="L185" s="10"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
       <c r="L186" s="10"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="10"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
-      <c r="K188" s="5"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
       <c r="L188" s="10"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
       <c r="L189" s="10"/>
     </row>
     <row r="191">
@@ -4504,112 +4601,134 @@
       <c r="A194" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="10"/>
+      <c r="B194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L194" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
       <c r="L195" s="10"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
       <c r="L196" s="10"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
       <c r="L197" s="10"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
       <c r="L198" s="10"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
       <c r="L199" s="10"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
       <c r="L200" s="10"/>
     </row>
     <row r="202">
@@ -4727,112 +4846,134 @@
       <c r="A205" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="10"/>
+      <c r="B205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L205" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="7"/>
+      <c r="J206" s="7"/>
+      <c r="K206" s="7"/>
       <c r="L206" s="10"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="7"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
       <c r="L207" s="10"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
       <c r="L208" s="10"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="7"/>
+      <c r="K209" s="7"/>
       <c r="L209" s="10"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="7"/>
+      <c r="K210" s="7"/>
       <c r="L210" s="10"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="7"/>
+      <c r="K211" s="7"/>
       <c r="L211" s="10"/>
     </row>
     <row r="213">
@@ -4950,112 +5091,134 @@
       <c r="A216" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="10"/>
+      <c r="B216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L216" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="7"/>
       <c r="L217" s="10"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="7"/>
       <c r="L218" s="10"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5"/>
-      <c r="K219" s="5"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="7"/>
       <c r="L219" s="10"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
       <c r="L220" s="10"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
-      <c r="J221" s="5"/>
-      <c r="K221" s="5"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
       <c r="L221" s="10"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5"/>
-      <c r="K222" s="5"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
+      <c r="K222" s="7"/>
       <c r="L222" s="10"/>
     </row>
     <row r="224">
@@ -5173,112 +5336,134 @@
       <c r="A227" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="10"/>
+      <c r="B227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L227" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5"/>
-      <c r="K228" s="5"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
       <c r="L228" s="10"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="7"/>
       <c r="L229" s="10"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="J230" s="7"/>
+      <c r="K230" s="7"/>
       <c r="L230" s="10"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5"/>
-      <c r="K231" s="5"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="7"/>
+      <c r="J231" s="7"/>
+      <c r="K231" s="7"/>
       <c r="L231" s="10"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="5"/>
-      <c r="K232" s="5"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="7"/>
       <c r="L232" s="10"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7"/>
       <c r="L233" s="10"/>
     </row>
     <row r="235">
@@ -5396,112 +5581,134 @@
       <c r="A238" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="10"/>
+      <c r="B238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L238" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
+      <c r="J239" s="7"/>
+      <c r="K239" s="7"/>
       <c r="L239" s="10"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="7"/>
       <c r="L240" s="10"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="7"/>
       <c r="L241" s="10"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="5"/>
-      <c r="K242" s="5"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
       <c r="L242" s="10"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="5"/>
-      <c r="K243" s="5"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
       <c r="L243" s="10"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="5"/>
-      <c r="K244" s="5"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
+      <c r="J244" s="7"/>
+      <c r="K244" s="7"/>
       <c r="L244" s="10"/>
     </row>
     <row r="246">
@@ -5619,112 +5826,134 @@
       <c r="A249" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5"/>
-      <c r="K249" s="5"/>
-      <c r="L249" s="10"/>
+      <c r="B249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L249" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
-      <c r="I250" s="5"/>
-      <c r="J250" s="5"/>
-      <c r="K250" s="5"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="7"/>
+      <c r="J250" s="7"/>
+      <c r="K250" s="7"/>
       <c r="L250" s="10"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5"/>
-      <c r="K251" s="5"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
+      <c r="K251" s="7"/>
       <c r="L251" s="10"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="5"/>
-      <c r="H252" s="5"/>
-      <c r="I252" s="5"/>
-      <c r="J252" s="5"/>
-      <c r="K252" s="5"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7"/>
+      <c r="I252" s="7"/>
+      <c r="J252" s="7"/>
+      <c r="K252" s="7"/>
       <c r="L252" s="10"/>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="5"/>
-      <c r="J253" s="5"/>
-      <c r="K253" s="5"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
+      <c r="K253" s="7"/>
       <c r="L253" s="10"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5"/>
-      <c r="K254" s="5"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7"/>
+      <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
+      <c r="K254" s="7"/>
       <c r="L254" s="10"/>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="7"/>
+      <c r="H255" s="7"/>
+      <c r="I255" s="7"/>
+      <c r="J255" s="7"/>
+      <c r="K255" s="7"/>
       <c r="L255" s="10"/>
     </row>
     <row r="257">
@@ -5842,112 +6071,134 @@
       <c r="A260" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B260" s="5"/>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5"/>
-      <c r="K260" s="5"/>
-      <c r="L260" s="10"/>
+      <c r="B260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L260" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="5"/>
-      <c r="H261" s="5"/>
-      <c r="I261" s="5"/>
-      <c r="J261" s="5"/>
-      <c r="K261" s="5"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="K261" s="7"/>
       <c r="L261" s="10"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="5"/>
-      <c r="H262" s="5"/>
-      <c r="I262" s="5"/>
-      <c r="J262" s="5"/>
-      <c r="K262" s="5"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7"/>
+      <c r="I262" s="7"/>
+      <c r="J262" s="7"/>
+      <c r="K262" s="7"/>
       <c r="L262" s="10"/>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5"/>
-      <c r="K263" s="5"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+      <c r="H263" s="7"/>
+      <c r="I263" s="7"/>
+      <c r="J263" s="7"/>
+      <c r="K263" s="7"/>
       <c r="L263" s="10"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5"/>
-      <c r="K264" s="5"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="7"/>
+      <c r="H264" s="7"/>
+      <c r="I264" s="7"/>
+      <c r="J264" s="7"/>
+      <c r="K264" s="7"/>
       <c r="L264" s="10"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5"/>
-      <c r="K265" s="5"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="7"/>
+      <c r="H265" s="7"/>
+      <c r="I265" s="7"/>
+      <c r="J265" s="7"/>
+      <c r="K265" s="7"/>
       <c r="L265" s="10"/>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="5"/>
-      <c r="H266" s="5"/>
-      <c r="I266" s="5"/>
-      <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="7"/>
+      <c r="I266" s="7"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="7"/>
       <c r="L266" s="10"/>
     </row>
     <row r="268">
@@ -6065,112 +6316,134 @@
       <c r="A271" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="5"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5"/>
-      <c r="J271" s="5"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="10"/>
+      <c r="B271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L271" s="8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B272" s="5"/>
-      <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-      <c r="G272" s="5"/>
-      <c r="H272" s="5"/>
-      <c r="I272" s="5"/>
-      <c r="J272" s="5"/>
-      <c r="K272" s="5"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="7"/>
+      <c r="I272" s="7"/>
+      <c r="J272" s="7"/>
+      <c r="K272" s="7"/>
       <c r="L272" s="10"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B273" s="5"/>
-      <c r="C273" s="5"/>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5"/>
-      <c r="K273" s="5"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
+      <c r="H273" s="7"/>
+      <c r="I273" s="7"/>
+      <c r="J273" s="7"/>
+      <c r="K273" s="7"/>
       <c r="L273" s="10"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B274" s="5"/>
-      <c r="C274" s="5"/>
-      <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
-      <c r="G274" s="5"/>
-      <c r="H274" s="5"/>
-      <c r="I274" s="5"/>
-      <c r="J274" s="5"/>
-      <c r="K274" s="5"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="7"/>
+      <c r="H274" s="7"/>
+      <c r="I274" s="7"/>
+      <c r="J274" s="7"/>
+      <c r="K274" s="7"/>
       <c r="L274" s="10"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B275" s="5"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
-      <c r="F275" s="5"/>
-      <c r="G275" s="5"/>
-      <c r="H275" s="5"/>
-      <c r="I275" s="5"/>
-      <c r="J275" s="5"/>
-      <c r="K275" s="5"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="7"/>
+      <c r="J275" s="7"/>
+      <c r="K275" s="7"/>
       <c r="L275" s="10"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B276" s="5"/>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
-      <c r="I276" s="5"/>
-      <c r="J276" s="5"/>
-      <c r="K276" s="5"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
+      <c r="H276" s="7"/>
+      <c r="I276" s="7"/>
+      <c r="J276" s="7"/>
+      <c r="K276" s="7"/>
       <c r="L276" s="10"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
-      <c r="I277" s="5"/>
-      <c r="J277" s="5"/>
-      <c r="K277" s="5"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="7"/>
+      <c r="H277" s="7"/>
+      <c r="I277" s="7"/>
+      <c r="J277" s="7"/>
+      <c r="K277" s="7"/>
       <c r="L277" s="10"/>
     </row>
     <row r="279">
@@ -6288,112 +6561,134 @@
       <c r="A282" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B282" s="5"/>
-      <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
-      <c r="F282" s="5"/>
-      <c r="G282" s="5"/>
-      <c r="H282" s="5"/>
-      <c r="I282" s="5"/>
-      <c r="J282" s="5"/>
-      <c r="K282" s="5"/>
-      <c r="L282" s="10"/>
+      <c r="B282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L282" s="8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B283" s="5"/>
-      <c r="C283" s="5"/>
-      <c r="D283" s="5"/>
-      <c r="E283" s="5"/>
-      <c r="F283" s="5"/>
-      <c r="G283" s="5"/>
-      <c r="H283" s="5"/>
-      <c r="I283" s="5"/>
-      <c r="J283" s="5"/>
-      <c r="K283" s="5"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
+      <c r="K283" s="7"/>
       <c r="L283" s="10"/>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B284" s="5"/>
-      <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
-      <c r="F284" s="5"/>
-      <c r="G284" s="5"/>
-      <c r="H284" s="5"/>
-      <c r="I284" s="5"/>
-      <c r="J284" s="5"/>
-      <c r="K284" s="5"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+      <c r="I284" s="7"/>
+      <c r="J284" s="7"/>
+      <c r="K284" s="7"/>
       <c r="L284" s="10"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B285" s="5"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
-      <c r="F285" s="5"/>
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="5"/>
-      <c r="J285" s="5"/>
-      <c r="K285" s="5"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" s="7"/>
+      <c r="H285" s="7"/>
+      <c r="I285" s="7"/>
+      <c r="J285" s="7"/>
+      <c r="K285" s="7"/>
       <c r="L285" s="10"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B286" s="5"/>
-      <c r="C286" s="5"/>
-      <c r="D286" s="5"/>
-      <c r="E286" s="5"/>
-      <c r="F286" s="5"/>
-      <c r="G286" s="5"/>
-      <c r="H286" s="5"/>
-      <c r="I286" s="5"/>
-      <c r="J286" s="5"/>
-      <c r="K286" s="5"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="7"/>
+      <c r="H286" s="7"/>
+      <c r="I286" s="7"/>
+      <c r="J286" s="7"/>
+      <c r="K286" s="7"/>
       <c r="L286" s="10"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B287" s="5"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
-      <c r="F287" s="5"/>
-      <c r="G287" s="5"/>
-      <c r="H287" s="5"/>
-      <c r="I287" s="5"/>
-      <c r="J287" s="5"/>
-      <c r="K287" s="5"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" s="7"/>
+      <c r="H287" s="7"/>
+      <c r="I287" s="7"/>
+      <c r="J287" s="7"/>
+      <c r="K287" s="7"/>
       <c r="L287" s="10"/>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
-      <c r="F288" s="5"/>
-      <c r="G288" s="5"/>
-      <c r="H288" s="5"/>
-      <c r="I288" s="5"/>
-      <c r="J288" s="5"/>
-      <c r="K288" s="5"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="7"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="7"/>
+      <c r="J288" s="7"/>
+      <c r="K288" s="7"/>
       <c r="L288" s="10"/>
     </row>
   </sheetData>

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="41">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -448,7 +448,10 @@
       <c r="L7" s="8">
         <v>0.2</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="4" t="str">
+        <f>sum(L8,L19,L30,L41,L52,L63,L74,L85,L96,L107,L118,L129,L140,L151,L162,L173,L184,L195,L206,L217,L228,L239,L250,L261,L272,L283)/26</f>
+        <v>27.31%</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
@@ -456,17 +459,39 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.1</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -719,17 +744,39 @@
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -964,17 +1011,39 @@
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="8"/>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -1209,17 +1278,39 @@
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="8"/>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -1454,17 +1545,39 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="8"/>
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -1699,17 +1812,39 @@
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -1944,17 +2079,39 @@
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="10"/>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -2189,17 +2346,39 @@
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="10"/>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -2434,17 +2613,39 @@
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="10"/>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L96" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
@@ -2679,17 +2880,39 @@
       <c r="A107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="10"/>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
@@ -2924,17 +3147,39 @@
       <c r="A118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="10"/>
+      <c r="B118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L118" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
@@ -3169,17 +3414,39 @@
       <c r="A129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="10"/>
+      <c r="B129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L129" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
@@ -3414,16 +3681,36 @@
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L140" s="10"/>
     </row>
     <row r="141">
@@ -3659,17 +3946,39 @@
       <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="10"/>
+      <c r="B151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L151" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -3904,17 +4213,39 @@
       <c r="A162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="10"/>
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L162" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
@@ -4149,16 +4480,36 @@
       <c r="A173" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
+      <c r="B173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L173" s="10"/>
     </row>
     <row r="174">
@@ -4394,17 +4745,39 @@
       <c r="A184" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="10"/>
+      <c r="B184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L184" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
@@ -4639,17 +5012,39 @@
       <c r="A195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="10"/>
+      <c r="B195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L195" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
@@ -4884,17 +5279,39 @@
       <c r="A206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
-      <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
-      <c r="K206" s="7"/>
-      <c r="L206" s="10"/>
+      <c r="B206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L206" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
@@ -5129,17 +5546,39 @@
       <c r="A217" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-      <c r="I217" s="7"/>
-      <c r="J217" s="7"/>
-      <c r="K217" s="7"/>
-      <c r="L217" s="10"/>
+      <c r="B217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L217" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
@@ -5374,17 +5813,39 @@
       <c r="A228" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
-      <c r="L228" s="10"/>
+      <c r="B228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L228" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
@@ -5619,17 +6080,39 @@
       <c r="A239" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="10"/>
+      <c r="B239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L239" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
@@ -5864,17 +6347,39 @@
       <c r="A250" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B250" s="7"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
-      <c r="L250" s="10"/>
+      <c r="B250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L250" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
@@ -6109,17 +6614,39 @@
       <c r="A261" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B261" s="7"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="7"/>
-      <c r="F261" s="7"/>
-      <c r="G261" s="7"/>
-      <c r="H261" s="7"/>
-      <c r="I261" s="7"/>
-      <c r="J261" s="7"/>
-      <c r="K261" s="7"/>
-      <c r="L261" s="10"/>
+      <c r="B261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L261" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
@@ -6354,17 +6881,39 @@
       <c r="A272" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B272" s="7"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-      <c r="I272" s="7"/>
-      <c r="J272" s="7"/>
-      <c r="K272" s="7"/>
-      <c r="L272" s="10"/>
+      <c r="B272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L272" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
@@ -6599,17 +7148,39 @@
       <c r="A283" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="7"/>
-      <c r="J283" s="7"/>
-      <c r="K283" s="7"/>
-      <c r="L283" s="10"/>
+      <c r="B283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L283" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="41">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -500,17 +500,39 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.2</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>13</v>
       </c>
@@ -782,17 +804,39 @@
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1049,17 +1093,39 @@
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="8"/>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -1316,17 +1382,39 @@
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="8"/>
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -1583,17 +1671,39 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="8"/>
+      <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -1850,17 +1960,39 @@
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -2117,17 +2249,39 @@
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="10"/>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -2384,17 +2538,39 @@
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="10"/>
+      <c r="B86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -2651,17 +2827,39 @@
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="10"/>
+      <c r="B97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
@@ -2918,17 +3116,39 @@
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="10"/>
+      <c r="B108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
@@ -3185,17 +3405,39 @@
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="10"/>
+      <c r="B119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
@@ -3452,17 +3694,39 @@
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="10"/>
+      <c r="B130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
@@ -3711,23 +3975,47 @@
       <c r="K140" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L140" s="10"/>
+      <c r="L140" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="10"/>
+      <c r="B141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
@@ -3984,17 +4272,39 @@
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="10"/>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L152" s="1">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="41">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -452,7 +452,10 @@
         <f>sum(L8,L19,L30,L41,L52,L63,L74,L85,L96,L107,L118,L129,L140,L151,L162,L173,L184,L195,L206,L217,L228,L239,L250,L261,L272,L283)/26</f>
         <v>27.31%</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="4" t="str">
+        <f>sum(L9,L20,L31,L42,L53,L64,L75,L86,L97,L108,L119,L130,L141,L152,L163,L174,L185,L196,L207,L218,L229,L240,L251,L262,L273,L284)/26</f>
+        <v>7.69%</v>
+      </c>
       <c r="P7" s="7"/>
     </row>
     <row r="8">
@@ -530,7 +533,7 @@
       <c r="K9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="8">
         <v>0.2</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -834,7 +837,7 @@
       <c r="K20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1123,7 +1126,7 @@
       <c r="K31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1412,7 +1415,7 @@
       <c r="K42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1701,7 +1704,7 @@
       <c r="K53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="8">
         <v>0.4</v>
       </c>
     </row>
@@ -1990,7 +1993,7 @@
       <c r="K64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -2279,7 +2282,7 @@
       <c r="K75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -2568,7 +2571,7 @@
       <c r="K86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -2857,7 +2860,7 @@
       <c r="K97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L97" s="1">
+      <c r="L97" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3146,7 +3149,7 @@
       <c r="K108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L108" s="1">
+      <c r="L108" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3435,7 +3438,7 @@
       <c r="K119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L119" s="1">
+      <c r="L119" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3724,7 +3727,7 @@
       <c r="K130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L130" s="1">
+      <c r="L130" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4013,7 +4016,7 @@
       <c r="K141" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L141" s="1">
+      <c r="L141" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4302,7 +4305,7 @@
       <c r="K152" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L152" s="1">
+      <c r="L152" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -4561,17 +4564,39 @@
       <c r="A163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
-      <c r="L163" s="10"/>
+      <c r="B163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L163" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
@@ -4820,23 +4845,47 @@
       <c r="K173" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L173" s="10"/>
+      <c r="L173" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="10"/>
+      <c r="B174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L174" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -5093,17 +5142,39 @@
       <c r="A185" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="10"/>
+      <c r="B185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L185" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
@@ -5360,17 +5431,39 @@
       <c r="A196" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
-      <c r="K196" s="7"/>
-      <c r="L196" s="10"/>
+      <c r="B196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L196" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
@@ -5627,17 +5720,39 @@
       <c r="A207" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="7"/>
-      <c r="L207" s="10"/>
+      <c r="B207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L207" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
@@ -5894,17 +6009,39 @@
       <c r="A218" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="10"/>
+      <c r="B218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L218" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
@@ -6161,17 +6298,39 @@
       <c r="A229" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-      <c r="K229" s="7"/>
-      <c r="L229" s="10"/>
+      <c r="B229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L229" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
@@ -6428,17 +6587,39 @@
       <c r="A240" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
-      <c r="L240" s="10"/>
+      <c r="B240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L240" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
@@ -6695,17 +6876,39 @@
       <c r="A251" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
-      <c r="L251" s="10"/>
+      <c r="B251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L251" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
@@ -6962,17 +7165,39 @@
       <c r="A262" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B262" s="7"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="7"/>
-      <c r="F262" s="7"/>
-      <c r="G262" s="7"/>
-      <c r="H262" s="7"/>
-      <c r="I262" s="7"/>
-      <c r="J262" s="7"/>
-      <c r="K262" s="7"/>
-      <c r="L262" s="10"/>
+      <c r="B262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L262" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
@@ -7229,17 +7454,39 @@
       <c r="A273" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-      <c r="I273" s="7"/>
-      <c r="J273" s="7"/>
-      <c r="K273" s="7"/>
-      <c r="L273" s="10"/>
+      <c r="B273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L273" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
@@ -7496,17 +7743,39 @@
       <c r="A284" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-      <c r="I284" s="7"/>
-      <c r="J284" s="7"/>
-      <c r="K284" s="7"/>
-      <c r="L284" s="10"/>
+      <c r="B284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L284" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="42">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Ｄ</t>
+  </si>
+  <si>
+    <t>―</t>
   </si>
   <si>
     <t>Ｅ</t>
@@ -550,17 +553,39 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.0</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -845,17 +870,39 @@
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="8"/>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -1134,17 +1181,39 @@
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="8"/>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -1423,16 +1492,36 @@
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="B43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44">
@@ -1485,7 +1574,7 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2">
         <v>1.0</v>
@@ -1712,17 +1801,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="8"/>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -1774,7 +1885,7 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2">
         <v>1.0</v>
@@ -2001,17 +2112,39 @@
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -2063,7 +2196,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B70" s="2">
         <v>1.0</v>
@@ -2290,17 +2423,39 @@
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="10"/>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -2352,7 +2507,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" s="2">
         <v>1.0</v>
@@ -2579,17 +2734,39 @@
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="10"/>
+      <c r="B87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L87" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
@@ -2641,7 +2818,7 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B92" s="2">
         <v>1.0</v>
@@ -2868,17 +3045,39 @@
       <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="10"/>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -2930,7 +3129,7 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" s="2">
         <v>1.0</v>
@@ -3157,17 +3356,39 @@
       <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="10"/>
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L109" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -3219,7 +3440,7 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B114" s="2">
         <v>1.0</v>
@@ -3446,17 +3667,39 @@
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="10"/>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L120" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -3508,7 +3751,7 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B125" s="2">
         <v>1.0</v>
@@ -3735,17 +3978,39 @@
       <c r="A131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="10"/>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L131" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
@@ -3797,7 +4062,7 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B136" s="2">
         <v>1.0</v>
@@ -3978,7 +4243,7 @@
       <c r="K140" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L140" s="1">
+      <c r="L140" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4024,17 +4289,39 @@
       <c r="A142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="10"/>
+      <c r="B142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L142" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
@@ -4086,7 +4373,7 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B147" s="2">
         <v>1.0</v>
@@ -4313,17 +4600,39 @@
       <c r="A153" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="10"/>
+      <c r="B153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L153" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
@@ -4375,7 +4684,7 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B158" s="2">
         <v>1.0</v>
@@ -4664,7 +4973,7 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B169" s="2">
         <v>1.0</v>
@@ -4845,7 +5154,7 @@
       <c r="K173" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L173" s="1">
+      <c r="L173" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4953,7 +5262,7 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B180" s="2">
         <v>1.0</v>
@@ -5242,7 +5551,7 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B191" s="2">
         <v>1.0</v>
@@ -5531,7 +5840,7 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B202" s="2">
         <v>1.0</v>
@@ -5820,7 +6129,7 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B213" s="2">
         <v>1.0</v>
@@ -6109,7 +6418,7 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B224" s="2">
         <v>1.0</v>
@@ -6398,7 +6707,7 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B235" s="2">
         <v>1.0</v>
@@ -6687,7 +6996,7 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B246" s="2">
         <v>1.0</v>
@@ -6976,7 +7285,7 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B257" s="2">
         <v>1.0</v>
@@ -7265,7 +7574,7 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B268" s="2">
         <v>1.0</v>
@@ -7554,7 +7863,7 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B279" s="2">
         <v>1.0</v>

--- a/認識率テストシート　アルファベット用.xlsx
+++ b/認識率テストシート　アルファベット用.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="43">
   <si>
     <t>iPodtouchからマイク入力した際の認識率（アルファベットｖｅｒ）</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>悪</t>
   </si>
   <si>
     <t>R</t>
@@ -459,7 +462,10 @@
         <f>sum(L9,L20,L31,L42,L53,L64,L75,L86,L97,L108,L119,L130,L141,L152,L163,L174,L185,L196,L207,L218,L229,L240,L251,L262,L273,L284)/26</f>
         <v>7.69%</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="4" t="str">
+        <f>sum(L10,L21,L32,L43,L54,L65,L76,L87,L98,L109,L120,L131,L142,L153,L164,L175,L186,L197,L208,L219,L230,L241,L252,L263,L274,L285)/26</f>
+        <v>16.15%</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4911,17 +4917,39 @@
       <c r="A164" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="10"/>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L164" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
@@ -5200,17 +5228,39 @@
       <c r="A175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="10"/>
+      <c r="B175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L175" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -5489,17 +5539,42 @@
       <c r="A186" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="10"/>
+      <c r="B186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L186" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
@@ -5551,7 +5626,7 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B191" s="2">
         <v>1.0</v>
@@ -5778,17 +5853,39 @@
       <c r="A197" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
-      <c r="K197" s="7"/>
-      <c r="L197" s="10"/>
+      <c r="B197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L197" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
@@ -5840,7 +5937,7 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B202" s="2">
         <v>1.0</v>
@@ -6067,17 +6164,42 @@
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
-      <c r="K208" s="7"/>
-      <c r="L208" s="10"/>
+      <c r="B208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L208" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
@@ -6129,7 +6251,7 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B213" s="2">
         <v>1.0</v>
@@ -6356,17 +6478,42 @@
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
-      <c r="L219" s="10"/>
+      <c r="B219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L219" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
@@ -6418,7 +6565,7 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B224" s="2">
         <v>1.0</v>
@@ -6645,17 +6792,42 @@
       <c r="A230" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
-      <c r="L230" s="10"/>
+      <c r="B230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L230" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
@@ -6707,7 +6879,7 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B235" s="2">
         <v>1.0</v>
@@ -6934,17 +7106,39 @@
       <c r="A241" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="7"/>
-      <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
-      <c r="L241" s="10"/>
+      <c r="B241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L241" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
@@ -6996,7 +7190,7 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B246" s="2">
         <v>1.0</v>
@@ -7223,17 +7417,39 @@
       <c r="A252" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B252" s="7"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
-      <c r="L252" s="10"/>
+      <c r="B252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L252" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
@@ -7285,7 +7501,7 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B257" s="2">
         <v>1.0</v>
@@ -7512,17 +7728,42 @@
       <c r="A263" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B263" s="7"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="7"/>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7"/>
-      <c r="I263" s="7"/>
-      <c r="J263" s="7"/>
-      <c r="K263" s="7"/>
-      <c r="L263" s="10"/>
+      <c r="B263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L263" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
@@ -7574,7 +7815,7 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B268" s="2">
         <v>1.0</v>
@@ -7801,17 +8042,39 @@
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B274" s="7"/>
-      <c r="C274" s="7"/>
-      <c r="D274" s="7"/>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="7"/>
-      <c r="I274" s="7"/>
-      <c r="J274" s="7"/>
-      <c r="K274" s="7"/>
-      <c r="L274" s="10"/>
+      <c r="B274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L274" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
@@ -7863,7 +8126,7 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B279" s="2">
         <v>1.0</v>
@@ -8090,17 +8353,42 @@
       <c r="A285" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B285" s="7"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="7"/>
-      <c r="J285" s="7"/>
-      <c r="K285" s="7"/>
-      <c r="L285" s="10"/>
+      <c r="B285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L285" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
